--- a/test/xlsx/h5newArray.xlsx
+++ b/test/xlsx/h5newArray.xlsx
@@ -40,12 +40,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,9 +66,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,9 +376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -389,19 +394,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" s="2" t="str">
         <f>_xll.h5newArray($B1, "/A", {12,13}, "Datatype,uint8")</f>
         <v>/A</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="2" t="str">
         <f>_xll.h5newArray($B1, "/C/D", {12,-16}, "Datatype,single")</f>
         <v>/C/D</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8" s="2" t="str">
         <f>_xll.h5newArray($B1, "/E/F (gzipped + checksums)", {-12,1024,768}, "ChunkSize,[4 4 64],Deflate,6,Fletcher32,true")</f>
         <v>/E/F (gzipped + checksums)</v>
       </c>
